--- a/predict_dat1.xlsx
+++ b/predict_dat1.xlsx
@@ -3275,16 +3275,16 @@
         <v>62</v>
       </c>
       <c r="E112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>29.03</v>
+        <v>30.65</v>
       </c>
       <c r="G112" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H112" t="n">
-        <v>1480</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="113">
@@ -3301,16 +3301,16 @@
         <v>62</v>
       </c>
       <c r="E113" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F113" t="n">
-        <v>35.48</v>
+        <v>37.1</v>
       </c>
       <c r="G113" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H113" t="n">
-        <v>1519</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="114">
@@ -3327,16 +3327,16 @@
         <v>62</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>32.26</v>
+        <v>33.87</v>
       </c>
       <c r="G114" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H114" t="n">
-        <v>1557</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="115">
@@ -3353,16 +3353,16 @@
         <v>62</v>
       </c>
       <c r="E115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F115" t="n">
-        <v>30.65</v>
+        <v>32.26</v>
       </c>
       <c r="G115" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H115" t="n">
-        <v>1597</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="116">
@@ -3379,16 +3379,16 @@
         <v>62</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>19.35</v>
+        <v>20.97</v>
       </c>
       <c r="G116" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1625</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="117">
@@ -3414,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>1632</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="118">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1633</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="119">
@@ -3457,16 +3457,16 @@
         <v>64</v>
       </c>
       <c r="E119" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F119" t="n">
-        <v>35.94</v>
+        <v>39.06</v>
       </c>
       <c r="G119" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H119" t="n">
-        <v>1693</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="120">
@@ -3492,7 +3492,7 @@
         <v>28</v>
       </c>
       <c r="H120" t="n">
-        <v>1721</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="121">
@@ -3509,16 +3509,16 @@
         <v>68</v>
       </c>
       <c r="E121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F121" t="n">
-        <v>30.88</v>
+        <v>33.82</v>
       </c>
       <c r="G121" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H121" t="n">
-        <v>1758</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="122">
@@ -3535,16 +3535,16 @@
         <v>68</v>
       </c>
       <c r="E122" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122" t="n">
-        <v>22.06</v>
+        <v>23.53</v>
       </c>
       <c r="G122" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H122" t="n">
-        <v>1790</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="123">
@@ -3561,16 +3561,16 @@
         <v>68</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>11.76</v>
+        <v>14.71</v>
       </c>
       <c r="G123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H123" t="n">
-        <v>1803</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="124">
@@ -3587,16 +3587,16 @@
         <v>68</v>
       </c>
       <c r="E124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>10.29</v>
+        <v>11.76</v>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H124" t="n">
-        <v>1810</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="125">
@@ -3622,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>1814</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="126">
@@ -3639,16 +3639,16 @@
         <v>69</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F126" t="n">
-        <v>15.94</v>
+        <v>18.84</v>
       </c>
       <c r="G126" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H126" t="n">
-        <v>1836</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="127">
@@ -3665,16 +3665,16 @@
         <v>70</v>
       </c>
       <c r="E127" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>24.29</v>
       </c>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H127" t="n">
-        <v>1856</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="128">
@@ -3691,16 +3691,68 @@
         <v>70</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H128" t="n">
-        <v>1857</v>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B129" t="n">
+        <v>21</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>72</v>
+      </c>
+      <c r="E129" t="n">
+        <v>18</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25</v>
+      </c>
+      <c r="G129" t="n">
+        <v>32</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>

--- a/predict_dat1.xlsx
+++ b/predict_dat1.xlsx
@@ -773,22 +773,22 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
       <c r="F16" t="n">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -825,22 +825,22 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>16.67</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -929,22 +929,22 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>20</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1088,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="G28" t="n">
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -1163,22 +1163,22 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>28.57</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>28.57</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>14.29</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>14.29</v>
       </c>
       <c r="G35" t="n">
         <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
@@ -1296,19 +1296,19 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>57.14</v>
+        <v>44.44</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1322,19 +1322,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1348,19 +1348,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>33.33</v>
+        <v>27.27</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1374,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>11.11</v>
+        <v>9.09</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -1397,22 +1397,22 @@
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>9.09</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1452,19 +1452,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>45.45</v>
+        <v>41.67</v>
       </c>
       <c r="G42" t="n">
         <v>14</v>
       </c>
       <c r="H42" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
@@ -1478,19 +1478,19 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>23.08</v>
+        <v>21.43</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1504,19 +1504,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>26.67</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
       </c>
       <c r="H44" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -1530,19 +1530,19 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
         <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>37.5</v>
+        <v>35.29</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -1556,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>16.67</v>
+        <v>15.79</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>5.56</v>
+        <v>5.26</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>5.56</v>
+        <v>5.26</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -1634,19 +1634,19 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>25</v>
+        <v>23.81</v>
       </c>
       <c r="G49" t="n">
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -1660,19 +1660,19 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>33.33</v>
+        <v>31.82</v>
       </c>
       <c r="G50" t="n">
         <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>33.33</v>
+        <v>31.82</v>
       </c>
       <c r="G51" t="n">
         <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>14.29</v>
+        <v>13.64</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53">
@@ -1738,19 +1738,19 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>36.36</v>
+        <v>34.78</v>
       </c>
       <c r="G53" t="n">
         <v>14</v>
       </c>
       <c r="H53" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -1764,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>13.64</v>
+        <v>13.04</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -1790,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
@@ -1816,19 +1816,19 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>30.77</v>
+        <v>29.63</v>
       </c>
       <c r="G56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57">
@@ -1842,19 +1842,19 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>25</v>
+        <v>24.14</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58">
@@ -1868,19 +1868,19 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" t="n">
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>38.71</v>
+        <v>37.5</v>
       </c>
       <c r="G58" t="n">
         <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59">
@@ -1894,19 +1894,19 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
       <c r="G59" t="n">
         <v>13</v>
       </c>
       <c r="H59" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60">
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>25.71</v>
+        <v>27.78</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61">
@@ -1946,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>11.43</v>
+        <v>11.11</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62">
@@ -1972,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>5.71</v>
+        <v>5.56</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63">
@@ -1998,19 +1998,19 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>44.44</v>
+        <v>45.95</v>
       </c>
       <c r="G63" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64">
@@ -2024,19 +2024,19 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E64" t="n">
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>44.74</v>
+        <v>43.59</v>
       </c>
       <c r="G64" t="n">
         <v>22</v>
       </c>
       <c r="H64" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65">
@@ -2050,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>27.5</v>
+        <v>26.83</v>
       </c>
       <c r="G65" t="n">
         <v>25</v>
       </c>
       <c r="H65" t="n">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66">
@@ -2076,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>42.5</v>
+        <v>41.46</v>
       </c>
       <c r="G66" t="n">
         <v>39</v>
       </c>
       <c r="H66" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67">
@@ -2102,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>22.5</v>
+        <v>21.95</v>
       </c>
       <c r="G67" t="n">
         <v>16</v>
       </c>
       <c r="H67" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68">
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69">
@@ -2154,19 +2154,19 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>4.88</v>
+        <v>4.76</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70">
@@ -2180,19 +2180,19 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" t="n">
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>35.71</v>
+        <v>34.88</v>
       </c>
       <c r="G70" t="n">
         <v>28</v>
       </c>
       <c r="H70" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71">
@@ -2206,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>35.56</v>
+        <v>34.78</v>
       </c>
       <c r="G71" t="n">
         <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72">
@@ -2232,19 +2232,19 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>26.09</v>
+        <v>25.53</v>
       </c>
       <c r="G72" t="n">
         <v>28</v>
       </c>
       <c r="H72" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73">
@@ -2258,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>28.26</v>
+        <v>27.66</v>
       </c>
       <c r="G73" t="n">
         <v>38</v>
       </c>
       <c r="H73" t="n">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74">
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>28.26</v>
+        <v>27.66</v>
       </c>
       <c r="G74" t="n">
         <v>22</v>
       </c>
       <c r="H74" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75">
@@ -2310,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>15.22</v>
+        <v>14.89</v>
       </c>
       <c r="G75" t="n">
         <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>8.7</v>
+        <v>8.51</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77">
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E77" t="n">
         <v>14</v>
       </c>
       <c r="F77" t="n">
-        <v>30.43</v>
+        <v>29.79</v>
       </c>
       <c r="G77" t="n">
         <v>37</v>
       </c>
       <c r="H77" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78">
@@ -2388,19 +2388,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>43.75</v>
+        <v>42.86</v>
       </c>
       <c r="G78" t="n">
         <v>44</v>
       </c>
       <c r="H78" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79">
@@ -2414,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>16.67</v>
+        <v>18.37</v>
       </c>
       <c r="G79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H79" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80">
@@ -2440,19 +2440,19 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E80" t="n">
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>29.41</v>
       </c>
       <c r="G80" t="n">
         <v>33</v>
       </c>
       <c r="H80" t="n">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81">
@@ -2466,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>17.65</v>
       </c>
       <c r="G81" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" t="n">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82">
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>11.76</v>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="83">
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>5.88</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="84">
@@ -2544,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
         <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>29.41</v>
       </c>
       <c r="G84" t="n">
         <v>36</v>
       </c>
       <c r="H84" t="n">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85">
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E85" t="n">
         <v>22</v>
       </c>
       <c r="F85" t="n">
-        <v>44</v>
+        <v>43.14</v>
       </c>
       <c r="G85" t="n">
         <v>37</v>
       </c>
       <c r="H85" t="n">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86">
@@ -2596,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>25.49</v>
       </c>
       <c r="G86" t="n">
         <v>30</v>
       </c>
       <c r="H86" t="n">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="87">
@@ -2622,19 +2622,19 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
       </c>
       <c r="F87" t="n">
-        <v>31.37</v>
+        <v>30.77</v>
       </c>
       <c r="G87" t="n">
         <v>31</v>
       </c>
       <c r="H87" t="n">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88">
@@ -2648,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>27.45</v>
+        <v>28.85</v>
       </c>
       <c r="G88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H88" t="n">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89">
@@ -2674,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>9.8</v>
+        <v>9.62</v>
       </c>
       <c r="G89" t="n">
         <v>9</v>
       </c>
       <c r="H89" t="n">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90">
@@ -2700,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>13.73</v>
+        <v>13.46</v>
       </c>
       <c r="G90" t="n">
         <v>9</v>
       </c>
       <c r="H90" t="n">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="91">
@@ -2726,19 +2726,19 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
       </c>
       <c r="F91" t="n">
-        <v>42.31</v>
+        <v>41.51</v>
       </c>
       <c r="G91" t="n">
         <v>44</v>
       </c>
       <c r="H91" t="n">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92">
@@ -2752,19 +2752,19 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>29.63</v>
+        <v>30.91</v>
       </c>
       <c r="G92" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92" t="n">
-        <v>956</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93">
@@ -2778,19 +2778,19 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E93" t="n">
         <v>19</v>
       </c>
       <c r="F93" t="n">
-        <v>34.55</v>
+        <v>33.93</v>
       </c>
       <c r="G93" t="n">
         <v>39</v>
       </c>
       <c r="H93" t="n">
-        <v>995</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="94">
@@ -2804,19 +2804,19 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E94" t="n">
         <v>19</v>
       </c>
       <c r="F94" t="n">
-        <v>33.93</v>
+        <v>33.33</v>
       </c>
       <c r="G94" t="n">
         <v>26</v>
       </c>
       <c r="H94" t="n">
-        <v>1021</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="95">
@@ -2830,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E95" t="n">
         <v>20</v>
       </c>
       <c r="F95" t="n">
-        <v>35.71</v>
+        <v>35.09</v>
       </c>
       <c r="G95" t="n">
         <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>1057</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="96">
@@ -2856,19 +2856,19 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E96" t="n">
         <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>10.71</v>
+        <v>10.53</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>1065</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97">
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>12.5</v>
+        <v>12.28</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
       </c>
       <c r="H97" t="n">
-        <v>1079</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="98">
@@ -2908,19 +2908,19 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E98" t="n">
         <v>23</v>
       </c>
       <c r="F98" t="n">
-        <v>40.35</v>
+        <v>39.66</v>
       </c>
       <c r="G98" t="n">
         <v>59</v>
       </c>
       <c r="H98" t="n">
-        <v>1138</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="99">
@@ -2934,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E99" t="n">
         <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>24.56</v>
+        <v>24.14</v>
       </c>
       <c r="G99" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99" t="n">
-        <v>1167</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="100">
@@ -2957,22 +2957,22 @@
         <v>17</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>29.82</v>
+        <v>30.51</v>
       </c>
       <c r="G100" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100" t="n">
-        <v>1205</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="101">
@@ -2986,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E101" t="n">
         <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>31.03</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
         <v>43</v>
       </c>
       <c r="H101" t="n">
-        <v>1248</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="102">
@@ -3012,19 +3012,19 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" t="n">
-        <v>21.67</v>
+        <v>22.58</v>
       </c>
       <c r="G102" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H102" t="n">
-        <v>1276</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="103">
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>8.33</v>
+        <v>9.68</v>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="104">
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>1287</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="105">
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>8.33</v>
+        <v>9.68</v>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H105" t="n">
-        <v>1293</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="106">
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>21.67</v>
+        <v>20.97</v>
       </c>
       <c r="G106" t="n">
         <v>26</v>
       </c>
       <c r="H106" t="n">
-        <v>1319</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="107">
@@ -3142,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>13.33</v>
+        <v>12.9</v>
       </c>
       <c r="G107" t="n">
         <v>12</v>
       </c>
       <c r="H107" t="n">
-        <v>1331</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="108">
@@ -3168,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E108" t="n">
         <v>19</v>
       </c>
       <c r="F108" t="n">
-        <v>31.67</v>
+        <v>30.65</v>
       </c>
       <c r="G108" t="n">
         <v>52</v>
       </c>
       <c r="H108" t="n">
-        <v>1383</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="109">
@@ -3191,22 +3191,22 @@
         <v>18</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F109" t="n">
-        <v>31.15</v>
+        <v>31.25</v>
       </c>
       <c r="G109" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109" t="n">
-        <v>1416</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="110">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>11.48</v>
+        <v>10.94</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
       </c>
       <c r="H110" t="n">
-        <v>1428</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="111">
@@ -3246,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>8.2</v>
+        <v>7.81</v>
       </c>
       <c r="G111" t="n">
         <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>1438</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="112">
@@ -3272,19 +3272,19 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E112" t="n">
         <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>30.65</v>
+        <v>29.23</v>
       </c>
       <c r="G112" t="n">
         <v>47</v>
       </c>
       <c r="H112" t="n">
-        <v>1485</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="113">
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E113" t="n">
         <v>23</v>
       </c>
       <c r="F113" t="n">
-        <v>37.1</v>
+        <v>35.38</v>
       </c>
       <c r="G113" t="n">
         <v>42</v>
       </c>
       <c r="H113" t="n">
-        <v>1527</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="114">
@@ -3324,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E114" t="n">
         <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>33.87</v>
+        <v>32.31</v>
       </c>
       <c r="G114" t="n">
         <v>40</v>
       </c>
       <c r="H114" t="n">
-        <v>1567</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="115">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115" t="n">
-        <v>32.26</v>
+        <v>32.31</v>
       </c>
       <c r="G115" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H115" t="n">
-        <v>1611</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="116">
@@ -3376,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>20.97</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H116" t="n">
-        <v>1640</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="117">
@@ -3402,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>6.45</v>
+        <v>6.15</v>
       </c>
       <c r="G117" t="n">
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>1647</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="118">
@@ -3428,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1648</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="119">
@@ -3454,19 +3454,19 @@
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119" t="n">
-        <v>39.06</v>
+        <v>35.82</v>
       </c>
       <c r="G119" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H119" t="n">
-        <v>1710</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="120">
@@ -3480,19 +3480,19 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>20.59</v>
       </c>
       <c r="G120" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H120" t="n">
-        <v>1738</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="121">
@@ -3506,19 +3506,19 @@
         <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E121" t="n">
         <v>23</v>
       </c>
       <c r="F121" t="n">
-        <v>33.82</v>
+        <v>32.39</v>
       </c>
       <c r="G121" t="n">
         <v>39</v>
       </c>
       <c r="H121" t="n">
-        <v>1777</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="122">
@@ -3532,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E122" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F122" t="n">
-        <v>23.53</v>
+        <v>29.58</v>
       </c>
       <c r="G122" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H122" t="n">
-        <v>1810</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="123">
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>14.71</v>
+        <v>16.9</v>
       </c>
       <c r="G123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H123" t="n">
-        <v>1825</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="124">
@@ -3581,22 +3581,22 @@
         <v>20</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F124" t="n">
-        <v>11.76</v>
+        <v>13.89</v>
       </c>
       <c r="G124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H124" t="n">
-        <v>1833</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="125">
@@ -3610,19 +3610,19 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>1837</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="126">
@@ -3633,22 +3633,22 @@
         <v>21</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F126" t="n">
-        <v>18.84</v>
+        <v>26.67</v>
       </c>
       <c r="G126" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H126" t="n">
-        <v>1868</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="127">
@@ -3662,19 +3662,19 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E127" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F127" t="n">
-        <v>24.29</v>
+        <v>30.26</v>
       </c>
       <c r="G127" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H127" t="n">
-        <v>1892</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="128">
@@ -3688,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E128" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F128" t="n">
-        <v>14.29</v>
+        <v>19.74</v>
       </c>
       <c r="G128" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H128" t="n">
-        <v>1919</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="129">
@@ -3711,22 +3711,22 @@
         <v>21</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E129" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F129" t="n">
-        <v>25</v>
+        <v>27.27</v>
       </c>
       <c r="G129" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H129" t="n">
-        <v>1951</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="130">
@@ -3740,19 +3740,383 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B131" t="n">
+        <v>21</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>77</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>77</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>45075</v>
+      </c>
+      <c r="B133" t="n">
+        <v>22</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>80</v>
+      </c>
+      <c r="E133" t="n">
+        <v>25</v>
+      </c>
+      <c r="F133" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="G133" t="n">
+        <v>43</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B134" t="n">
+        <v>22</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>80</v>
+      </c>
+      <c r="E134" t="n">
+        <v>16</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>42</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>80</v>
+      </c>
+      <c r="E135" t="n">
+        <v>21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="G135" t="n">
+        <v>47</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B136" t="n">
+        <v>22</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>81</v>
+      </c>
+      <c r="E136" t="n">
+        <v>18</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G136" t="n">
+        <v>37</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>81</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>45080</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>81</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>81</v>
+      </c>
+      <c r="E139" t="n">
         <v>4</v>
       </c>
-      <c r="F130" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="F139" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G139" t="n">
         <v>6</v>
       </c>
-      <c r="H130" t="n">
-        <v>1957</v>
+      <c r="H139" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>81</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="G140" t="n">
+        <v>29</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B141" t="n">
+        <v>23</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>81</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="G141" t="n">
+        <v>33</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B142" t="n">
+        <v>23</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>81</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12</v>
+      </c>
+      <c r="F142" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="G142" t="n">
+        <v>29</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B143" t="n">
+        <v>23</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>81</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15</v>
+      </c>
+      <c r="F143" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="G143" t="n">
+        <v>35</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B144" t="n">
+        <v>23</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>82</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="G144" t="n">
+        <v>18</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2409</v>
       </c>
     </row>
   </sheetData>

--- a/predict_dat1.xlsx
+++ b/predict_dat1.xlsx
@@ -1865,22 +1865,22 @@
         <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>37.5</v>
+        <v>42.42</v>
       </c>
       <c r="G58" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59">
@@ -1894,19 +1894,19 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>30.56</v>
+        <v>29.73</v>
       </c>
       <c r="G59" t="n">
         <v>13</v>
       </c>
       <c r="H59" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60">
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>27.78</v>
+        <v>27.03</v>
       </c>
       <c r="G60" t="n">
         <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61">
@@ -1946,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>11.11</v>
+        <v>10.81</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62">
@@ -1972,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>5.56</v>
+        <v>5.41</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63">
@@ -1998,19 +1998,19 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>45.95</v>
+        <v>44.74</v>
       </c>
       <c r="G63" t="n">
         <v>35</v>
       </c>
       <c r="H63" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64">
@@ -2024,19 +2024,19 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>43.59</v>
+        <v>42.5</v>
       </c>
       <c r="G64" t="n">
         <v>22</v>
       </c>
       <c r="H64" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65">
@@ -2050,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E65" t="n">
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>26.83</v>
+        <v>26.19</v>
       </c>
       <c r="G65" t="n">
         <v>25</v>
       </c>
       <c r="H65" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66">
@@ -2076,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>41.46</v>
+        <v>40.48</v>
       </c>
       <c r="G66" t="n">
         <v>39</v>
       </c>
       <c r="H66" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67">
@@ -2102,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>21.95</v>
+        <v>21.43</v>
       </c>
       <c r="G67" t="n">
         <v>16</v>
       </c>
       <c r="H67" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68">
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69">
@@ -2151,22 +2151,22 @@
         <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>4.76</v>
+        <v>6.82</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70">
@@ -2180,19 +2180,19 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>34.88</v>
+        <v>33.33</v>
       </c>
       <c r="G70" t="n">
         <v>28</v>
       </c>
       <c r="H70" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71">
@@ -2206,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="G71" t="n">
         <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72">
@@ -2232,19 +2232,19 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>25.53</v>
+        <v>24.49</v>
       </c>
       <c r="G72" t="n">
         <v>28</v>
       </c>
       <c r="H72" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73">
@@ -2258,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>27.66</v>
+        <v>30.61</v>
       </c>
       <c r="G73" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H73" t="n">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74">
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>27.66</v>
+        <v>26.53</v>
       </c>
       <c r="G74" t="n">
         <v>22</v>
       </c>
       <c r="H74" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75">
@@ -2310,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>14.89</v>
+        <v>14.29</v>
       </c>
       <c r="G75" t="n">
         <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>8.51</v>
+        <v>10.2</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77">
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E77" t="n">
         <v>14</v>
       </c>
       <c r="F77" t="n">
-        <v>29.79</v>
+        <v>28.57</v>
       </c>
       <c r="G77" t="n">
         <v>37</v>
       </c>
       <c r="H77" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78">
@@ -2388,19 +2388,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>42.86</v>
+        <v>41.18</v>
       </c>
       <c r="G78" t="n">
         <v>44</v>
       </c>
       <c r="H78" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79">
@@ -2414,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>18.37</v>
+        <v>17.65</v>
       </c>
       <c r="G79" t="n">
         <v>17</v>
       </c>
       <c r="H79" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80">
@@ -2440,19 +2440,19 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E80" t="n">
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>29.41</v>
+        <v>28.3</v>
       </c>
       <c r="G80" t="n">
         <v>33</v>
       </c>
       <c r="H80" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81">
@@ -2466,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>17.65</v>
+        <v>16.98</v>
       </c>
       <c r="G81" t="n">
         <v>15</v>
       </c>
       <c r="H81" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="82">
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E82" t="n">
         <v>6</v>
       </c>
       <c r="F82" t="n">
-        <v>11.76</v>
+        <v>11.32</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="83">
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>5.88</v>
+        <v>5.66</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="84">
@@ -2544,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E84" t="n">
         <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>29.41</v>
+        <v>28.3</v>
       </c>
       <c r="G84" t="n">
         <v>36</v>
       </c>
       <c r="H84" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="85">
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E85" t="n">
         <v>22</v>
       </c>
       <c r="F85" t="n">
-        <v>43.14</v>
+        <v>41.51</v>
       </c>
       <c r="G85" t="n">
         <v>37</v>
       </c>
       <c r="H85" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86">
@@ -2596,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>25.49</v>
+        <v>24.53</v>
       </c>
       <c r="G86" t="n">
         <v>30</v>
       </c>
       <c r="H86" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87">
@@ -2619,22 +2619,22 @@
         <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>30.77</v>
+        <v>30.91</v>
       </c>
       <c r="G87" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87" t="n">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="88">
@@ -2648,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E88" t="n">
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>28.85</v>
+        <v>27.27</v>
       </c>
       <c r="G88" t="n">
         <v>27</v>
       </c>
       <c r="H88" t="n">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="89">
@@ -2674,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>9.62</v>
+        <v>9.09</v>
       </c>
       <c r="G89" t="n">
         <v>9</v>
       </c>
       <c r="H89" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="90">
@@ -2700,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>13.46</v>
+        <v>12.73</v>
       </c>
       <c r="G90" t="n">
         <v>9</v>
       </c>
       <c r="H90" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91">
@@ -2726,19 +2726,19 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
       </c>
       <c r="F91" t="n">
-        <v>41.51</v>
+        <v>39.29</v>
       </c>
       <c r="G91" t="n">
         <v>44</v>
       </c>
       <c r="H91" t="n">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="92">
@@ -2749,22 +2749,22 @@
         <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E92" t="n">
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>30.91</v>
+        <v>29.82</v>
       </c>
       <c r="G92" t="n">
         <v>34</v>
       </c>
       <c r="H92" t="n">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="93">
@@ -2778,19 +2778,19 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E93" t="n">
         <v>19</v>
       </c>
       <c r="F93" t="n">
-        <v>33.93</v>
+        <v>32.76</v>
       </c>
       <c r="G93" t="n">
         <v>39</v>
       </c>
       <c r="H93" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="94">
@@ -2804,19 +2804,19 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E94" t="n">
         <v>19</v>
       </c>
       <c r="F94" t="n">
-        <v>33.33</v>
+        <v>32.2</v>
       </c>
       <c r="G94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H94" t="n">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="95">
@@ -2830,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>35.09</v>
+        <v>32.2</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95" t="n">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="96">
@@ -2856,19 +2856,19 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>10.53</v>
+        <v>11.86</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H96" t="n">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="97">
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>12.28</v>
+        <v>11.86</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
       </c>
       <c r="H97" t="n">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="98">
@@ -2908,19 +2908,19 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E98" t="n">
         <v>23</v>
       </c>
       <c r="F98" t="n">
-        <v>39.66</v>
+        <v>38.33</v>
       </c>
       <c r="G98" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H98" t="n">
-        <v>1147</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="99">
@@ -2934,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>24.14</v>
+        <v>25</v>
       </c>
       <c r="G99" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99" t="n">
-        <v>1177</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="100">
@@ -2960,19 +2960,19 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E100" t="n">
         <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>30.51</v>
+        <v>29.51</v>
       </c>
       <c r="G100" t="n">
         <v>39</v>
       </c>
       <c r="H100" t="n">
-        <v>1216</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="101">
@@ -2986,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E101" t="n">
         <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>29.03</v>
       </c>
       <c r="G101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101" t="n">
-        <v>1259</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="102">
@@ -3012,19 +3012,19 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>22.58</v>
+        <v>23.44</v>
       </c>
       <c r="G102" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102" t="n">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="103">
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>9.68</v>
+        <v>9.38</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>1294</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="104">
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>4.84</v>
+        <v>4.69</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="105">
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>9.68</v>
+        <v>9.38</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
       </c>
       <c r="H105" t="n">
-        <v>1308</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="106">
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>20.97</v>
+        <v>20.31</v>
       </c>
       <c r="G106" t="n">
         <v>26</v>
       </c>
       <c r="H106" t="n">
-        <v>1334</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="107">
@@ -3142,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="G107" t="n">
         <v>12</v>
       </c>
       <c r="H107" t="n">
-        <v>1346</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="108">
@@ -3168,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F108" t="n">
-        <v>30.65</v>
+        <v>31.25</v>
       </c>
       <c r="G108" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H108" t="n">
-        <v>1398</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="109">
@@ -3194,19 +3194,19 @@
         <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E109" t="n">
         <v>20</v>
       </c>
       <c r="F109" t="n">
-        <v>31.25</v>
+        <v>30.3</v>
       </c>
       <c r="G109" t="n">
         <v>34</v>
       </c>
       <c r="H109" t="n">
-        <v>1432</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="110">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>10.94</v>
+        <v>10.61</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
       </c>
       <c r="H110" t="n">
-        <v>1444</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="111">
@@ -3246,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>7.81</v>
+        <v>7.58</v>
       </c>
       <c r="G111" t="n">
         <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="112">
@@ -3272,19 +3272,19 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E112" t="n">
         <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>29.23</v>
+        <v>28.36</v>
       </c>
       <c r="G112" t="n">
         <v>47</v>
       </c>
       <c r="H112" t="n">
-        <v>1501</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="113">
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E113" t="n">
         <v>23</v>
       </c>
       <c r="F113" t="n">
-        <v>35.38</v>
+        <v>34.33</v>
       </c>
       <c r="G113" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H113" t="n">
-        <v>1543</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="114">
@@ -3324,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E114" t="n">
         <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>32.31</v>
+        <v>31.34</v>
       </c>
       <c r="G114" t="n">
         <v>40</v>
       </c>
       <c r="H114" t="n">
-        <v>1583</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="115">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E115" t="n">
         <v>21</v>
       </c>
       <c r="F115" t="n">
-        <v>32.31</v>
+        <v>31.34</v>
       </c>
       <c r="G115" t="n">
         <v>45</v>
       </c>
       <c r="H115" t="n">
-        <v>1628</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="116">
@@ -3376,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="G116" t="n">
         <v>28</v>
       </c>
       <c r="H116" t="n">
-        <v>1656</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="117">
@@ -3402,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>6.15</v>
+        <v>5.97</v>
       </c>
       <c r="G117" t="n">
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>1663</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="118">
@@ -3428,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1664</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="119">
@@ -3454,19 +3454,19 @@
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E119" t="n">
         <v>24</v>
       </c>
       <c r="F119" t="n">
-        <v>35.82</v>
+        <v>34.78</v>
       </c>
       <c r="G119" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H119" t="n">
-        <v>1727</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="120">
@@ -3480,19 +3480,19 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
-        <v>20.59</v>
+        <v>21.43</v>
       </c>
       <c r="G120" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120" t="n">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="121">
@@ -3506,19 +3506,19 @@
         <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E121" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F121" t="n">
-        <v>32.39</v>
+        <v>34.25</v>
       </c>
       <c r="G121" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H121" t="n">
-        <v>1798</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="122">
@@ -3532,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E122" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F122" t="n">
-        <v>29.58</v>
+        <v>30.14</v>
       </c>
       <c r="G122" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H122" t="n">
-        <v>1838</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="123">
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123" t="n">
-        <v>16.9</v>
+        <v>17.81</v>
       </c>
       <c r="G123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="n">
-        <v>1855</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="124">
@@ -3584,19 +3584,19 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
       </c>
       <c r="F124" t="n">
-        <v>13.89</v>
+        <v>13.51</v>
       </c>
       <c r="G124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H124" t="n">
-        <v>1865</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="125">
@@ -3610,19 +3610,19 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>4.11</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>1869</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="126">
@@ -3636,19 +3636,19 @@
         <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E126" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F126" t="n">
-        <v>26.67</v>
+        <v>28.57</v>
       </c>
       <c r="G126" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H126" t="n">
-        <v>1908</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="127">
@@ -3662,19 +3662,19 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E127" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" t="n">
-        <v>30.26</v>
+        <v>30.77</v>
       </c>
       <c r="G127" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H127" t="n">
-        <v>1954</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="128">
@@ -3688,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>19.74</v>
+        <v>21.79</v>
       </c>
       <c r="G128" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H128" t="n">
-        <v>1988</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="129">
@@ -3714,19 +3714,19 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E129" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F129" t="n">
-        <v>27.27</v>
+        <v>30.38</v>
       </c>
       <c r="G129" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H129" t="n">
-        <v>2028</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="130">
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E130" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F130" t="n">
-        <v>14.29</v>
+        <v>18.99</v>
       </c>
       <c r="G130" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>2043</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="131">
@@ -3766,19 +3766,19 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>6.49</v>
+        <v>7.59</v>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H131" t="n">
-        <v>2050</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="132">
@@ -3792,19 +3792,19 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E132" t="n">
         <v>6</v>
       </c>
       <c r="F132" t="n">
-        <v>7.79</v>
+        <v>7.59</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
       </c>
       <c r="H132" t="n">
-        <v>2056</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="133">
@@ -3818,19 +3818,19 @@
         <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" t="n">
-        <v>31.25</v>
+        <v>31.71</v>
       </c>
       <c r="G133" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H133" t="n">
-        <v>2099</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="134">
@@ -3844,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E134" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>21.95</v>
       </c>
       <c r="G134" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H134" t="n">
-        <v>2141</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="135">
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F135" t="n">
-        <v>26.25</v>
+        <v>28.05</v>
       </c>
       <c r="G135" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H135" t="n">
-        <v>2188</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="136">
@@ -3896,19 +3896,19 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E136" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F136" t="n">
-        <v>22.22</v>
+        <v>24.1</v>
       </c>
       <c r="G136" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H136" t="n">
-        <v>2225</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="137">
@@ -3922,19 +3922,19 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E137" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F137" t="n">
-        <v>19.75</v>
+        <v>22.89</v>
       </c>
       <c r="G137" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H137" t="n">
-        <v>2252</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="138">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
       </c>
       <c r="F138" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="G138" t="n">
         <v>7</v>
       </c>
       <c r="H138" t="n">
-        <v>2259</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="139">
@@ -3974,19 +3974,19 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>4.94</v>
+        <v>6.02</v>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H139" t="n">
-        <v>2265</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="140">
@@ -4000,19 +4000,19 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E140" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F140" t="n">
-        <v>20.99</v>
+        <v>24.1</v>
       </c>
       <c r="G140" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H140" t="n">
-        <v>2294</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="141">
@@ -4026,19 +4026,19 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F141" t="n">
-        <v>13.58</v>
+        <v>15.66</v>
       </c>
       <c r="G141" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H141" t="n">
-        <v>2327</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="142">
@@ -4052,19 +4052,19 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E142" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F142" t="n">
-        <v>14.81</v>
+        <v>18.07</v>
       </c>
       <c r="G142" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H142" t="n">
-        <v>2356</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="143">
@@ -4075,22 +4075,22 @@
         <v>23</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F143" t="n">
-        <v>18.52</v>
+        <v>25</v>
       </c>
       <c r="G143" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H143" t="n">
-        <v>2391</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="144">
@@ -4104,19 +4104,461 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E144" t="n">
+        <v>18</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>45087</v>
+      </c>
+      <c r="B145" t="n">
+        <v>23</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>85</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B146" t="n">
+        <v>23</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="G146" t="n">
+        <v>10</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B147" t="n">
+        <v>24</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>88</v>
+      </c>
+      <c r="E147" t="n">
+        <v>28</v>
+      </c>
+      <c r="F147" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="G147" t="n">
+        <v>60</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B148" t="n">
+        <v>24</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>88</v>
+      </c>
+      <c r="E148" t="n">
+        <v>24</v>
+      </c>
+      <c r="F148" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="G148" t="n">
+        <v>38</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B149" t="n">
+        <v>24</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>89</v>
+      </c>
+      <c r="E149" t="n">
+        <v>19</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="G149" t="n">
+        <v>49</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B150" t="n">
+        <v>24</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>90</v>
+      </c>
+      <c r="E150" t="n">
+        <v>22</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="G150" t="n">
+        <v>47</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B151" t="n">
+        <v>24</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>90</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="G151" t="n">
+        <v>28</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>45094</v>
+      </c>
+      <c r="B152" t="n">
+        <v>24</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>90</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B153" t="n">
+        <v>24</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>90</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="G153" t="n">
         <v>9</v>
       </c>
-      <c r="F144" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="G144" t="n">
-        <v>18</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2409</v>
+      <c r="H153" t="n">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>90</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>65</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B155" t="n">
+        <v>25</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>90</v>
+      </c>
+      <c r="E155" t="n">
+        <v>17</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="G155" t="n">
+        <v>37</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B156" t="n">
+        <v>25</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>90</v>
+      </c>
+      <c r="E156" t="n">
+        <v>14</v>
+      </c>
+      <c r="F156" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="G156" t="n">
+        <v>26</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B157" t="n">
+        <v>25</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>90</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>90</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>45101</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>90</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B160" t="n">
+        <v>25</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>91</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B161" t="n">
+        <v>26</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>91</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G161" t="n">
+        <v>17</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2919</v>
       </c>
     </row>
   </sheetData>

--- a/predict_dat1.xlsx
+++ b/predict_dat1.xlsx
@@ -597,16 +597,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -828,19 +828,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>33.33</v>
+        <v>14.29</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>16.67</v>
+        <v>12.5</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -932,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -955,22 +955,22 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>16.67</v>
+        <v>22.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1088,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="G28" t="n">
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>33.33</v>
+        <v>22.22</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1166,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>14.29</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -1267,22 +1267,22 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>14.29</v>
+        <v>18.18</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
@@ -1296,19 +1296,19 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>44.44</v>
+        <v>30.77</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
@@ -1322,19 +1322,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>7.14</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -1348,19 +1348,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>27.27</v>
+        <v>26.67</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -1374,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>9.09</v>
+        <v>13.33</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>9.09</v>
+        <v>6.67</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -1452,19 +1452,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>41.67</v>
+        <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1478,19 +1478,19 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>21.43</v>
+        <v>16.67</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -1501,22 +1501,22 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>26.32</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
@@ -1530,19 +1530,19 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>35.29</v>
+        <v>35</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -1556,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>15.79</v>
+        <v>13.64</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>5.26</v>
+        <v>4.55</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>5.26</v>
+        <v>4.55</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -1634,19 +1634,19 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>23.81</v>
+        <v>20.83</v>
       </c>
       <c r="G49" t="n">
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -1660,19 +1660,19 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>31.82</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
         <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>31.82</v>
+        <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>13.64</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
@@ -1738,19 +1738,19 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>34.78</v>
+        <v>26.92</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54">
@@ -1764,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>13.04</v>
+        <v>11.54</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55">
@@ -1790,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>4.35</v>
+        <v>11.54</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56">
@@ -1816,19 +1816,19 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>29.63</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H56" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57">
@@ -1842,19 +1842,19 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>24.14</v>
+        <v>18.75</v>
       </c>
       <c r="G57" t="n">
         <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58">
@@ -1865,22 +1865,22 @@
         <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E58" t="n">
         <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>42.42</v>
+        <v>40</v>
       </c>
       <c r="G58" t="n">
         <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
@@ -1894,19 +1894,19 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>29.73</v>
+        <v>28.21</v>
       </c>
       <c r="G59" t="n">
         <v>13</v>
       </c>
       <c r="H59" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60">
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>27.03</v>
+        <v>28.21</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61">
@@ -1943,22 +1943,22 @@
         <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>10.81</v>
+        <v>12.5</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
@@ -1972,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>5.41</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63">
@@ -1998,19 +1998,19 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E63" t="n">
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>44.74</v>
+        <v>41.46</v>
       </c>
       <c r="G63" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" t="n">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64">
@@ -2021,22 +2021,22 @@
         <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
-        <v>42.5</v>
+        <v>43.9</v>
       </c>
       <c r="G64" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H64" t="n">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65">
@@ -2050,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>26.19</v>
+        <v>27.91</v>
       </c>
       <c r="G65" t="n">
         <v>25</v>
       </c>
       <c r="H65" t="n">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
@@ -2076,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>40.48</v>
+        <v>39.53</v>
       </c>
       <c r="G66" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66" t="n">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67">
@@ -2102,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
-        <v>21.43</v>
+        <v>18.6</v>
       </c>
       <c r="G67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68">
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>11.9</v>
+        <v>11.63</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69">
@@ -2154,19 +2154,19 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>6.82</v>
+        <v>8.89</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H69" t="n">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70">
@@ -2177,22 +2177,22 @@
         <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>33.33</v>
+        <v>34.04</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H70" t="n">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
@@ -2206,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>33.33</v>
+        <v>32</v>
       </c>
       <c r="G71" t="n">
         <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>455</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72">
@@ -2232,19 +2232,19 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>24.49</v>
+        <v>23.53</v>
       </c>
       <c r="G72" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" t="n">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73">
@@ -2258,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>30.61</v>
+        <v>33.33</v>
       </c>
       <c r="G73" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H73" t="n">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74">
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>26.53</v>
+        <v>25.49</v>
       </c>
       <c r="G74" t="n">
         <v>22</v>
       </c>
       <c r="H74" t="n">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75">
@@ -2310,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
-        <v>14.29</v>
+        <v>15.69</v>
       </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>554</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>10.2</v>
+        <v>13.73</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77">
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>28.57</v>
+        <v>29.41</v>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H77" t="n">
-        <v>596</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78">
@@ -2388,19 +2388,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" t="n">
-        <v>41.18</v>
+        <v>41.51</v>
       </c>
       <c r="G78" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78" t="n">
-        <v>640</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79">
@@ -2414,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>17.65</v>
+        <v>18.87</v>
       </c>
       <c r="G79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" t="n">
-        <v>657</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80">
@@ -2440,19 +2440,19 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E80" t="n">
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>28.3</v>
+        <v>27.27</v>
       </c>
       <c r="G80" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80" t="n">
-        <v>690</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81">
@@ -2466,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>16.98</v>
+        <v>18.18</v>
       </c>
       <c r="G81" t="n">
         <v>15</v>
       </c>
       <c r="H81" t="n">
-        <v>705</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82">
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E82" t="n">
         <v>6</v>
       </c>
       <c r="F82" t="n">
-        <v>11.32</v>
+        <v>10.91</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>711</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83">
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>5.66</v>
+        <v>7.27</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>714</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84">
@@ -2544,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>28.3</v>
+        <v>30.91</v>
       </c>
       <c r="G84" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>750</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85">
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
-        <v>41.51</v>
+        <v>41.82</v>
       </c>
       <c r="G85" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H85" t="n">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="86">
@@ -2596,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="n">
-        <v>24.53</v>
+        <v>25.45</v>
       </c>
       <c r="G86" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
-        <v>817</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87">
@@ -2622,19 +2622,19 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E87" t="n">
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>30.91</v>
+        <v>29.82</v>
       </c>
       <c r="G87" t="n">
         <v>32</v>
       </c>
       <c r="H87" t="n">
-        <v>849</v>
+        <v>892</v>
       </c>
     </row>
     <row r="88">
@@ -2648,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E88" t="n">
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>27.27</v>
+        <v>26.32</v>
       </c>
       <c r="G88" t="n">
         <v>27</v>
       </c>
       <c r="H88" t="n">
-        <v>876</v>
+        <v>919</v>
       </c>
     </row>
     <row r="89">
@@ -2674,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
-        <v>9.09</v>
+        <v>10.53</v>
       </c>
       <c r="G89" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>885</v>
+        <v>930</v>
       </c>
     </row>
     <row r="90">
@@ -2700,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>12.73</v>
+        <v>14.04</v>
       </c>
       <c r="G90" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>894</v>
+        <v>942</v>
       </c>
     </row>
     <row r="91">
@@ -2723,22 +2723,22 @@
         <v>16</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
       </c>
       <c r="F91" t="n">
-        <v>39.29</v>
+        <v>38.6</v>
       </c>
       <c r="G91" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H91" t="n">
-        <v>938</v>
+        <v>985</v>
       </c>
     </row>
     <row r="92">
@@ -2749,22 +2749,22 @@
         <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F92" t="n">
-        <v>29.82</v>
+        <v>33.33</v>
       </c>
       <c r="G92" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H92" t="n">
-        <v>972</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="93">
@@ -2775,22 +2775,22 @@
         <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F93" t="n">
-        <v>32.76</v>
+        <v>33.33</v>
       </c>
       <c r="G93" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93" t="n">
-        <v>1011</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="94">
@@ -2804,19 +2804,19 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F94" t="n">
-        <v>32.2</v>
+        <v>32.79</v>
       </c>
       <c r="G94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H94" t="n">
-        <v>1038</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="95">
@@ -2830,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>32.2</v>
+        <v>29.51</v>
       </c>
       <c r="G95" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95" t="n">
-        <v>1073</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="96">
@@ -2856,19 +2856,19 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>11.86</v>
+        <v>11.48</v>
       </c>
       <c r="G96" t="n">
         <v>9</v>
       </c>
       <c r="H96" t="n">
-        <v>1082</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="97">
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
-        <v>11.86</v>
+        <v>13.11</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
       </c>
       <c r="H97" t="n">
-        <v>1096</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="98">
@@ -2905,22 +2905,22 @@
         <v>17</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E98" t="n">
         <v>23</v>
       </c>
       <c r="F98" t="n">
-        <v>38.33</v>
+        <v>37.7</v>
       </c>
       <c r="G98" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H98" t="n">
-        <v>1156</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="99">
@@ -2934,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E99" t="n">
         <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>25</v>
+        <v>24.59</v>
       </c>
       <c r="G99" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99" t="n">
-        <v>1187</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="100">
@@ -2960,19 +2960,19 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>29.51</v>
+        <v>30.65</v>
       </c>
       <c r="G100" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H100" t="n">
-        <v>1226</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="101">
@@ -2986,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" t="n">
-        <v>29.03</v>
+        <v>30.16</v>
       </c>
       <c r="G101" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H101" t="n">
-        <v>1270</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="102">
@@ -3012,19 +3012,19 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" t="n">
-        <v>23.44</v>
+        <v>24.62</v>
       </c>
       <c r="G102" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H102" t="n">
-        <v>1300</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="103">
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>9.38</v>
+        <v>10.77</v>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H103" t="n">
-        <v>1306</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="104">
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>1312</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="105">
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>9.38</v>
+        <v>10.77</v>
       </c>
       <c r="G105" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H105" t="n">
-        <v>1320</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="106">
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>20.31</v>
+        <v>23.08</v>
       </c>
       <c r="G106" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H106" t="n">
-        <v>1346</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="107">
@@ -3142,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>12.5</v>
+        <v>13.85</v>
       </c>
       <c r="G107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H107" t="n">
-        <v>1358</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="108">
@@ -3168,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E108" t="n">
         <v>20</v>
       </c>
       <c r="F108" t="n">
-        <v>31.25</v>
+        <v>30.77</v>
       </c>
       <c r="G108" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H108" t="n">
-        <v>1411</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="109">
@@ -3194,19 +3194,19 @@
         <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E109" t="n">
         <v>20</v>
       </c>
       <c r="F109" t="n">
-        <v>30.3</v>
+        <v>29.85</v>
       </c>
       <c r="G109" t="n">
         <v>34</v>
       </c>
       <c r="H109" t="n">
-        <v>1445</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="110">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>10.61</v>
+        <v>10.45</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
       </c>
       <c r="H110" t="n">
-        <v>1457</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="111">
@@ -3246,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>7.58</v>
+        <v>7.46</v>
       </c>
       <c r="G111" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H111" t="n">
-        <v>1467</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="112">
@@ -3272,19 +3272,19 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E112" t="n">
         <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>28.36</v>
+        <v>27.94</v>
       </c>
       <c r="G112" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H112" t="n">
-        <v>1514</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="113">
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E113" t="n">
         <v>23</v>
       </c>
       <c r="F113" t="n">
-        <v>34.33</v>
+        <v>33.82</v>
       </c>
       <c r="G113" t="n">
         <v>43</v>
       </c>
       <c r="H113" t="n">
-        <v>1557</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="114">
@@ -3324,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E114" t="n">
         <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>31.34</v>
+        <v>30.88</v>
       </c>
       <c r="G114" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H114" t="n">
-        <v>1597</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="115">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" t="n">
-        <v>31.34</v>
+        <v>32.35</v>
       </c>
       <c r="G115" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="n">
-        <v>1642</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="116">
@@ -3376,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>19.4</v>
+        <v>23.53</v>
       </c>
       <c r="G116" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H116" t="n">
-        <v>1670</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="117">
@@ -3402,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>5.97</v>
+        <v>7.35</v>
       </c>
       <c r="G117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
-        <v>1677</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="118">
@@ -3428,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>1.49</v>
+        <v>2.94</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>1678</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="119">
@@ -3454,19 +3454,19 @@
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E119" t="n">
         <v>24</v>
       </c>
       <c r="F119" t="n">
-        <v>34.78</v>
+        <v>34.29</v>
       </c>
       <c r="G119" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H119" t="n">
-        <v>1743</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="120">
@@ -3480,19 +3480,19 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>21.43</v>
+        <v>23.94</v>
       </c>
       <c r="G120" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H120" t="n">
-        <v>1776</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="121">
@@ -3506,19 +3506,19 @@
         <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E121" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F121" t="n">
-        <v>34.25</v>
+        <v>37.84</v>
       </c>
       <c r="G121" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H121" t="n">
-        <v>1818</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="122">
@@ -3532,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E122" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F122" t="n">
-        <v>30.14</v>
+        <v>31.08</v>
       </c>
       <c r="G122" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H122" t="n">
-        <v>1859</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="123">
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="n">
-        <v>17.81</v>
+        <v>18.92</v>
       </c>
       <c r="G123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H123" t="n">
-        <v>1878</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="124">
@@ -3584,19 +3584,19 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>13.51</v>
+        <v>14.67</v>
       </c>
       <c r="G124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>1889</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="125">
@@ -3610,19 +3610,19 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>1893</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="126">
@@ -3633,7 +3633,7 @@
         <v>21</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>77</v>
@@ -3648,7 +3648,7 @@
         <v>41</v>
       </c>
       <c r="H126" t="n">
-        <v>1934</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="127">
@@ -3665,16 +3665,16 @@
         <v>78</v>
       </c>
       <c r="E127" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F127" t="n">
-        <v>30.77</v>
+        <v>33.33</v>
       </c>
       <c r="G127" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H127" t="n">
-        <v>1981</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="128">
@@ -3691,16 +3691,16 @@
         <v>78</v>
       </c>
       <c r="E128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F128" t="n">
-        <v>21.79</v>
+        <v>24.36</v>
       </c>
       <c r="G128" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H128" t="n">
-        <v>2018</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="129">
@@ -3717,16 +3717,16 @@
         <v>79</v>
       </c>
       <c r="E129" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F129" t="n">
-        <v>30.38</v>
+        <v>34.18</v>
       </c>
       <c r="G129" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H129" t="n">
-        <v>2061</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="130">
@@ -3743,16 +3743,16 @@
         <v>79</v>
       </c>
       <c r="E130" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F130" t="n">
-        <v>18.99</v>
+        <v>17.72</v>
       </c>
       <c r="G130" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>2081</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="131">
@@ -3769,16 +3769,16 @@
         <v>79</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>7.59</v>
+        <v>8.86</v>
       </c>
       <c r="G131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H131" t="n">
-        <v>2089</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="132">
@@ -3795,16 +3795,16 @@
         <v>79</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>7.59</v>
+        <v>8.86</v>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H132" t="n">
-        <v>2095</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="133">
@@ -3821,16 +3821,16 @@
         <v>82</v>
       </c>
       <c r="E133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F133" t="n">
-        <v>31.71</v>
+        <v>35.37</v>
       </c>
       <c r="G133" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H133" t="n">
-        <v>2141</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="134">
@@ -3847,16 +3847,16 @@
         <v>82</v>
       </c>
       <c r="E134" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F134" t="n">
-        <v>21.95</v>
+        <v>24.39</v>
       </c>
       <c r="G134" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H134" t="n">
-        <v>2186</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="135">
@@ -3873,16 +3873,16 @@
         <v>82</v>
       </c>
       <c r="E135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" t="n">
-        <v>28.05</v>
+        <v>29.27</v>
       </c>
       <c r="G135" t="n">
         <v>48</v>
       </c>
       <c r="H135" t="n">
-        <v>2234</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="136">
@@ -3899,16 +3899,16 @@
         <v>83</v>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F136" t="n">
-        <v>24.1</v>
+        <v>26.51</v>
       </c>
       <c r="G136" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H136" t="n">
-        <v>2275</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="137">
@@ -3931,10 +3931,10 @@
         <v>22.89</v>
       </c>
       <c r="G137" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137" t="n">
-        <v>2307</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="138">
@@ -3951,16 +3951,16 @@
         <v>83</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F138" t="n">
-        <v>7.23</v>
+        <v>13.25</v>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H138" t="n">
-        <v>2314</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="139">
@@ -3977,16 +3977,16 @@
         <v>83</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F139" t="n">
-        <v>6.02</v>
+        <v>9.64</v>
       </c>
       <c r="G139" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H139" t="n">
-        <v>2321</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="140">
@@ -4003,16 +4003,16 @@
         <v>83</v>
       </c>
       <c r="E140" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F140" t="n">
-        <v>24.1</v>
+        <v>27.71</v>
       </c>
       <c r="G140" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H140" t="n">
-        <v>2355</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="141">
@@ -4038,7 +4038,7 @@
         <v>36</v>
       </c>
       <c r="H141" t="n">
-        <v>2391</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="142">
@@ -4055,16 +4055,16 @@
         <v>83</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F142" t="n">
-        <v>18.07</v>
+        <v>22.89</v>
       </c>
       <c r="G142" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H142" t="n">
-        <v>2430</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="143">
@@ -4081,16 +4081,16 @@
         <v>84</v>
       </c>
       <c r="E143" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F143" t="n">
-        <v>25</v>
+        <v>28.57</v>
       </c>
       <c r="G143" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H143" t="n">
-        <v>2475</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="144">
@@ -4107,16 +4107,16 @@
         <v>85</v>
       </c>
       <c r="E144" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F144" t="n">
-        <v>21.18</v>
+        <v>23.53</v>
       </c>
       <c r="G144" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H144" t="n">
-        <v>2502</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="145">
@@ -4142,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="H145" t="n">
-        <v>2508</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="146">
@@ -4165,10 +4165,10 @@
         <v>8.14</v>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H146" t="n">
-        <v>2518</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="147">
@@ -4185,16 +4185,16 @@
         <v>88</v>
       </c>
       <c r="E147" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F147" t="n">
-        <v>31.82</v>
+        <v>35.23</v>
       </c>
       <c r="G147" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H147" t="n">
-        <v>2578</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="148">
@@ -4211,16 +4211,16 @@
         <v>88</v>
       </c>
       <c r="E148" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F148" t="n">
-        <v>27.27</v>
+        <v>32.95</v>
       </c>
       <c r="G148" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H148" t="n">
-        <v>2616</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="149">
@@ -4231,22 +4231,22 @@
         <v>24</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E149" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F149" t="n">
-        <v>21.35</v>
+        <v>26.67</v>
       </c>
       <c r="G149" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H149" t="n">
-        <v>2665</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="150">
@@ -4260,19 +4260,19 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E150" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F150" t="n">
-        <v>24.44</v>
+        <v>27.47</v>
       </c>
       <c r="G150" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H150" t="n">
-        <v>2712</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="151">
@@ -4286,19 +4286,19 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F151" t="n">
-        <v>16.67</v>
+        <v>17.58</v>
       </c>
       <c r="G151" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H151" t="n">
-        <v>2740</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="152">
@@ -4312,19 +4312,19 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>5.56</v>
+        <v>5.49</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>2746</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="153">
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F153" t="n">
-        <v>6.67</v>
+        <v>8.79</v>
       </c>
       <c r="G153" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H153" t="n">
-        <v>2755</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="154">
@@ -4364,19 +4364,19 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E154" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F154" t="n">
-        <v>21.11</v>
+        <v>29.67</v>
       </c>
       <c r="G154" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H154" t="n">
-        <v>2820</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="155">
@@ -4390,19 +4390,19 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E155" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F155" t="n">
-        <v>18.89</v>
+        <v>26.37</v>
       </c>
       <c r="G155" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H155" t="n">
-        <v>2857</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="156">
@@ -4416,19 +4416,19 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E156" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F156" t="n">
-        <v>15.56</v>
+        <v>20.88</v>
       </c>
       <c r="G156" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H156" t="n">
-        <v>2883</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="157">
@@ -4442,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F157" t="n">
-        <v>1.11</v>
+        <v>4.4</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H157" t="n">
-        <v>2884</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="158">
@@ -4468,19 +4468,19 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>2.22</v>
+        <v>7.69</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H158" t="n">
-        <v>2886</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="159">
@@ -4494,19 +4494,19 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
-        <v>4.44</v>
+        <v>6.59</v>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H159" t="n">
-        <v>2890</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="160">
@@ -4520,19 +4520,19 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E160" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>10.99</v>
+        <v>18.48</v>
       </c>
       <c r="G160" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H160" t="n">
-        <v>2902</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="161">
@@ -4546,19 +4546,2255 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
+        <v>92</v>
+      </c>
+      <c r="E161" t="n">
+        <v>23</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B162" t="n">
+        <v>26</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>92</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27</v>
+      </c>
+      <c r="F162" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>92</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21</v>
+      </c>
+      <c r="F163" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="G163" t="n">
+        <v>49</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>45106</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>92</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25</v>
+      </c>
+      <c r="F164" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="G164" t="n">
+        <v>42</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B165" t="n">
+        <v>26</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>92</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B166" t="n">
+        <v>26</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>92</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="G166" t="n">
+        <v>18</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B167" t="n">
+        <v>26</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>92</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>92</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26</v>
+      </c>
+      <c r="F168" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="G168" t="n">
+        <v>64</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>92</v>
+      </c>
+      <c r="E169" t="n">
+        <v>38</v>
+      </c>
+      <c r="F169" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="G169" t="n">
+        <v>68</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>93</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26</v>
+      </c>
+      <c r="F170" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="G170" t="n">
+        <v>67</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>93</v>
+      </c>
+      <c r="E171" t="n">
+        <v>31</v>
+      </c>
+      <c r="F171" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="G171" t="n">
+        <v>62</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>94</v>
+      </c>
+      <c r="E172" t="n">
+        <v>22</v>
+      </c>
+      <c r="F172" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>42</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>45115</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>94</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G173" t="n">
+        <v>13</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>94</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G174" t="n">
+        <v>16</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B175" t="n">
+        <v>28</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>94</v>
+      </c>
+      <c r="E175" t="n">
+        <v>29</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="G175" t="n">
+        <v>80</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B176" t="n">
+        <v>28</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>94</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27</v>
+      </c>
+      <c r="F176" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="G176" t="n">
+        <v>60</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B177" t="n">
+        <v>28</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>94</v>
+      </c>
+      <c r="E177" t="n">
+        <v>23</v>
+      </c>
+      <c r="F177" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="G177" t="n">
+        <v>55</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B178" t="n">
+        <v>28</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>94</v>
+      </c>
+      <c r="E178" t="n">
+        <v>29</v>
+      </c>
+      <c r="F178" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="G178" t="n">
+        <v>62</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B179" t="n">
+        <v>28</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>94</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23</v>
+      </c>
+      <c r="F179" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="G179" t="n">
+        <v>35</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B180" t="n">
+        <v>28</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>94</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="G180" t="n">
+        <v>20</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B181" t="n">
+        <v>28</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>94</v>
+      </c>
+      <c r="E181" t="n">
+        <v>10</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="G181" t="n">
+        <v>16</v>
+      </c>
+      <c r="H181" t="n">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B182" t="n">
+        <v>29</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>94</v>
+      </c>
+      <c r="E182" t="n">
+        <v>30</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="G182" t="n">
+        <v>86</v>
+      </c>
+      <c r="H182" t="n">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B183" t="n">
+        <v>29</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>94</v>
+      </c>
+      <c r="E183" t="n">
+        <v>35</v>
+      </c>
+      <c r="F183" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="G183" t="n">
+        <v>87</v>
+      </c>
+      <c r="H183" t="n">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>94</v>
+      </c>
+      <c r="E184" t="n">
+        <v>28</v>
+      </c>
+      <c r="F184" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="G184" t="n">
+        <v>60</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B185" t="n">
+        <v>29</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>94</v>
+      </c>
+      <c r="E185" t="n">
+        <v>26</v>
+      </c>
+      <c r="F185" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="G185" t="n">
+        <v>72</v>
+      </c>
+      <c r="H185" t="n">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B186" t="n">
+        <v>29</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>94</v>
+      </c>
+      <c r="E186" t="n">
+        <v>22</v>
+      </c>
+      <c r="F186" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G186" t="n">
+        <v>62</v>
+      </c>
+      <c r="H186" t="n">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B187" t="n">
+        <v>29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>94</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G187" t="n">
+        <v>15</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>94</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B189" t="n">
+        <v>30</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>94</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27</v>
+      </c>
+      <c r="F189" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="G189" t="n">
+        <v>74</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B190" t="n">
+        <v>30</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>94</v>
+      </c>
+      <c r="E190" t="n">
+        <v>29</v>
+      </c>
+      <c r="F190" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="G190" t="n">
+        <v>62</v>
+      </c>
+      <c r="H190" t="n">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B191" t="n">
+        <v>30</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>94</v>
+      </c>
+      <c r="E191" t="n">
+        <v>26</v>
+      </c>
+      <c r="F191" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="G191" t="n">
+        <v>53</v>
+      </c>
+      <c r="H191" t="n">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B192" t="n">
+        <v>30</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>94</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27</v>
+      </c>
+      <c r="F192" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="G192" t="n">
+        <v>68</v>
+      </c>
+      <c r="H192" t="n">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B193" t="n">
+        <v>30</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>94</v>
+      </c>
+      <c r="E193" t="n">
+        <v>22</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G193" t="n">
+        <v>44</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B194" t="n">
+        <v>30</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>94</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G194" t="n">
+        <v>13</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B195" t="n">
+        <v>30</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>94</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="G195" t="n">
+        <v>17</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B196" t="n">
+        <v>31</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>94</v>
+      </c>
+      <c r="E196" t="n">
+        <v>31</v>
+      </c>
+      <c r="F196" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="G196" t="n">
+        <v>71</v>
+      </c>
+      <c r="H196" t="n">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B197" t="n">
+        <v>31</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>95</v>
+      </c>
+      <c r="E197" t="n">
+        <v>29</v>
+      </c>
+      <c r="F197" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="G197" t="n">
+        <v>75</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B198" t="n">
+        <v>31</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>95</v>
+      </c>
+      <c r="E198" t="n">
+        <v>27</v>
+      </c>
+      <c r="F198" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="G198" t="n">
+        <v>61</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B199" t="n">
+        <v>31</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>96</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="G199" t="n">
+        <v>55</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B200" t="n">
+        <v>31</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>96</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="G200" t="n">
+        <v>35</v>
+      </c>
+      <c r="H200" t="n">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>45143</v>
+      </c>
+      <c r="B201" t="n">
+        <v>31</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>96</v>
+      </c>
+      <c r="E201" t="n">
+        <v>10</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="G201" t="n">
+        <v>13</v>
+      </c>
+      <c r="H201" t="n">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B202" t="n">
+        <v>31</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>96</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12</v>
+      </c>
+      <c r="F202" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>19</v>
+      </c>
+      <c r="H202" t="n">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B203" t="n">
+        <v>32</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>96</v>
+      </c>
+      <c r="E203" t="n">
+        <v>28</v>
+      </c>
+      <c r="F203" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="G203" t="n">
+        <v>64</v>
+      </c>
+      <c r="H203" t="n">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B204" t="n">
+        <v>32</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>96</v>
+      </c>
+      <c r="E204" t="n">
+        <v>28</v>
+      </c>
+      <c r="F204" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="G204" t="n">
+        <v>55</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B205" t="n">
+        <v>32</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>96</v>
+      </c>
+      <c r="E205" t="n">
+        <v>30</v>
+      </c>
+      <c r="F205" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="G205" t="n">
+        <v>79</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B206" t="n">
+        <v>32</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>96</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27</v>
+      </c>
+      <c r="F206" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="G206" t="n">
+        <v>78</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B207" t="n">
+        <v>32</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>96</v>
+      </c>
+      <c r="E207" t="n">
+        <v>22</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="G207" t="n">
+        <v>45</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>45150</v>
+      </c>
+      <c r="B208" t="n">
+        <v>32</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>96</v>
+      </c>
+      <c r="E208" t="n">
+        <v>8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="G208" t="n">
+        <v>12</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>45151</v>
+      </c>
+      <c r="B209" t="n">
+        <v>32</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>96</v>
+      </c>
+      <c r="E209" t="n">
+        <v>7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G209" t="n">
+        <v>16</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B210" t="n">
+        <v>33</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>96</v>
+      </c>
+      <c r="E210" t="n">
+        <v>29</v>
+      </c>
+      <c r="F210" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="G210" t="n">
+        <v>85</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B211" t="n">
+        <v>33</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>96</v>
+      </c>
+      <c r="E211" t="n">
+        <v>27</v>
+      </c>
+      <c r="F211" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="G211" t="n">
+        <v>67</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B212" t="n">
+        <v>33</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>96</v>
+      </c>
+      <c r="E212" t="n">
+        <v>23</v>
+      </c>
+      <c r="F212" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="G212" t="n">
+        <v>61</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B213" t="n">
+        <v>33</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>96</v>
+      </c>
+      <c r="E213" t="n">
+        <v>29</v>
+      </c>
+      <c r="F213" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="G213" t="n">
+        <v>80</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B214" t="n">
+        <v>33</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>96</v>
+      </c>
+      <c r="E214" t="n">
+        <v>22</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="G214" t="n">
+        <v>43</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>45157</v>
+      </c>
+      <c r="B215" t="n">
+        <v>33</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>96</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>22</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B216" t="n">
+        <v>33</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>96</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B217" t="n">
+        <v>34</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>97</v>
+      </c>
+      <c r="E217" t="n">
+        <v>31</v>
+      </c>
+      <c r="F217" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="G217" t="n">
+        <v>89</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B218" t="n">
+        <v>34</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>97</v>
+      </c>
+      <c r="E218" t="n">
+        <v>37</v>
+      </c>
+      <c r="F218" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="G218" t="n">
         <v>91</v>
       </c>
-      <c r="E161" t="n">
-        <v>5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="G161" t="n">
-        <v>17</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2919</v>
+      <c r="H218" t="n">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B219" t="n">
+        <v>34</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>97</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27</v>
+      </c>
+      <c r="F219" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="G219" t="n">
+        <v>83</v>
+      </c>
+      <c r="H219" t="n">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B220" t="n">
+        <v>34</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>98</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21</v>
+      </c>
+      <c r="F220" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="G220" t="n">
+        <v>50</v>
+      </c>
+      <c r="H220" t="n">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B221" t="n">
+        <v>34</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>99</v>
+      </c>
+      <c r="E221" t="n">
+        <v>25</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G221" t="n">
+        <v>51</v>
+      </c>
+      <c r="H221" t="n">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>45164</v>
+      </c>
+      <c r="B222" t="n">
+        <v>34</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>99</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11</v>
+      </c>
+      <c r="F222" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="G222" t="n">
+        <v>18</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B223" t="n">
+        <v>34</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>99</v>
+      </c>
+      <c r="E223" t="n">
+        <v>8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="G223" t="n">
+        <v>21</v>
+      </c>
+      <c r="H223" t="n">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B224" t="n">
+        <v>35</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>99</v>
+      </c>
+      <c r="E224" t="n">
+        <v>25</v>
+      </c>
+      <c r="F224" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G224" t="n">
+        <v>71</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6274</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B225" t="n">
+        <v>35</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>99</v>
+      </c>
+      <c r="E225" t="n">
+        <v>31</v>
+      </c>
+      <c r="F225" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="G225" t="n">
+        <v>70</v>
+      </c>
+      <c r="H225" t="n">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B226" t="n">
+        <v>35</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>100</v>
+      </c>
+      <c r="E226" t="n">
+        <v>28</v>
+      </c>
+      <c r="F226" t="n">
+        <v>28</v>
+      </c>
+      <c r="G226" t="n">
+        <v>80</v>
+      </c>
+      <c r="H226" t="n">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B227" t="n">
+        <v>35</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>100</v>
+      </c>
+      <c r="E227" t="n">
+        <v>22</v>
+      </c>
+      <c r="F227" t="n">
+        <v>22</v>
+      </c>
+      <c r="G227" t="n">
+        <v>62</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B228" t="n">
+        <v>35</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>100</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15</v>
+      </c>
+      <c r="F228" t="n">
+        <v>15</v>
+      </c>
+      <c r="G228" t="n">
+        <v>29</v>
+      </c>
+      <c r="H228" t="n">
+        <v>6515</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>45171</v>
+      </c>
+      <c r="B229" t="n">
+        <v>35</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>100</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10</v>
+      </c>
+      <c r="G229" t="n">
+        <v>16</v>
+      </c>
+      <c r="H229" t="n">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B230" t="n">
+        <v>35</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>100</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6</v>
+      </c>
+      <c r="G230" t="n">
+        <v>8</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B231" t="n">
+        <v>36</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>100</v>
+      </c>
+      <c r="E231" t="n">
+        <v>33</v>
+      </c>
+      <c r="F231" t="n">
+        <v>33</v>
+      </c>
+      <c r="G231" t="n">
+        <v>99</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B232" t="n">
+        <v>36</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>100</v>
+      </c>
+      <c r="E232" t="n">
+        <v>30</v>
+      </c>
+      <c r="F232" t="n">
+        <v>30</v>
+      </c>
+      <c r="G232" t="n">
+        <v>68</v>
+      </c>
+      <c r="H232" t="n">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B233" t="n">
+        <v>36</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>100</v>
+      </c>
+      <c r="E233" t="n">
+        <v>29</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="n">
+        <v>78</v>
+      </c>
+      <c r="H233" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B234" t="n">
+        <v>36</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>100</v>
+      </c>
+      <c r="E234" t="n">
+        <v>30</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="n">
+        <v>95</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B235" t="n">
+        <v>36</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>100</v>
+      </c>
+      <c r="E235" t="n">
+        <v>28</v>
+      </c>
+      <c r="F235" t="n">
+        <v>28</v>
+      </c>
+      <c r="G235" t="n">
+        <v>57</v>
+      </c>
+      <c r="H235" t="n">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="B236" t="n">
+        <v>36</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>100</v>
+      </c>
+      <c r="E236" t="n">
+        <v>8</v>
+      </c>
+      <c r="F236" t="n">
+        <v>8</v>
+      </c>
+      <c r="G236" t="n">
+        <v>16</v>
+      </c>
+      <c r="H236" t="n">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B237" t="n">
+        <v>36</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>100</v>
+      </c>
+      <c r="E237" t="n">
+        <v>7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="n">
+        <v>14</v>
+      </c>
+      <c r="H237" t="n">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B238" t="n">
+        <v>37</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>100</v>
+      </c>
+      <c r="E238" t="n">
+        <v>28</v>
+      </c>
+      <c r="F238" t="n">
+        <v>28</v>
+      </c>
+      <c r="G238" t="n">
+        <v>87</v>
+      </c>
+      <c r="H238" t="n">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B239" t="n">
+        <v>37</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>100</v>
+      </c>
+      <c r="E239" t="n">
+        <v>25</v>
+      </c>
+      <c r="F239" t="n">
+        <v>25</v>
+      </c>
+      <c r="G239" t="n">
+        <v>99</v>
+      </c>
+      <c r="H239" t="n">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B240" t="n">
+        <v>37</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>100</v>
+      </c>
+      <c r="E240" t="n">
+        <v>19</v>
+      </c>
+      <c r="F240" t="n">
+        <v>19</v>
+      </c>
+      <c r="G240" t="n">
+        <v>40</v>
+      </c>
+      <c r="H240" t="n">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B241" t="n">
+        <v>37</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>100</v>
+      </c>
+      <c r="E241" t="n">
+        <v>26</v>
+      </c>
+      <c r="F241" t="n">
+        <v>26</v>
+      </c>
+      <c r="G241" t="n">
+        <v>69</v>
+      </c>
+      <c r="H241" t="n">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B242" t="n">
+        <v>37</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>100</v>
+      </c>
+      <c r="E242" t="n">
+        <v>16</v>
+      </c>
+      <c r="F242" t="n">
+        <v>16</v>
+      </c>
+      <c r="G242" t="n">
+        <v>49</v>
+      </c>
+      <c r="H242" t="n">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>45185</v>
+      </c>
+      <c r="B243" t="n">
+        <v>37</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>100</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10</v>
+      </c>
+      <c r="H243" t="n">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B244" t="n">
+        <v>37</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>100</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>7</v>
+      </c>
+      <c r="G244" t="n">
+        <v>12</v>
+      </c>
+      <c r="H244" t="n">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B245" t="n">
+        <v>38</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>18</v>
+      </c>
+      <c r="F245" t="n">
+        <v>18</v>
+      </c>
+      <c r="G245" t="n">
+        <v>76</v>
+      </c>
+      <c r="H245" t="n">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B246" t="n">
+        <v>38</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>100</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" t="n">
+        <v>9</v>
+      </c>
+      <c r="H246" t="n">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B247" t="n">
+        <v>38</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>100</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
